--- a/biology/Zoologie/Dugesiella/Dugesiella.xlsx
+++ b/biology/Zoologie/Dugesiella/Dugesiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dugesiella est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dugesiella est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques du Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 31/01/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 31/01/2023) :
 Dugesiella anitahoffmannae (Locht, Medina, Rojo &amp; Vázquez, 2005)
 Dugesiella crinita Pocock, 1901
 Dugesiella duplex (Chamberlin, 1925)
@@ -576,9 +592,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Pocock en 1901 dans les Aviculariidae. Il est placé en synonymie avec Rhechostica par Raven en 1985[2] puis avec Aphonopelma[3]. Il est relevé de synonymie par Gabriel en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Pocock en 1901 dans les Aviculariidae. Il est placé en synonymie avec Rhechostica par Raven en 1985 puis avec Aphonopelma. Il est relevé de synonymie par Gabriel en 2022.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1901 : « Some new and old genera of South American Avicularidae. » Annals and Magazine of Natural History, sér. 7, vol. 8, p. 540-555 (texte intégral).</t>
         </is>
